--- a/assets/Archivos/Proceso/productividad.xlsx
+++ b/assets/Archivos/Proceso/productividad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto\assets\Archivos\Proceso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\SFM-Proyecto-Cabezas\assets\Archivos\Proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550A38E-84BF-40B1-9BCD-A8EC1DD33C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A8A53-C975-492C-9459-0CAE767164D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2295" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EA211" sheetId="3" r:id="rId1"/>
@@ -21,18 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Dia</t>
   </si>
   <si>
-    <t>Turno 1</t>
-  </si>
-  <si>
-    <t>Turno 2</t>
-  </si>
-  <si>
-    <t>Turno 3</t>
+    <t>Produccion</t>
   </si>
 </sst>
 </file>
@@ -435,233 +429,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4393F4C3-B8D0-4206-B605-0C196F5EA3F8}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>32</v>
       </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>36</v>
       </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>35</v>
       </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>33</v>
       </c>
-      <c r="C13">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14">
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16">
         <v>36</v>
       </c>
     </row>
@@ -672,24 +570,12 @@
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
         <v>25</v>
       </c>
     </row>
@@ -772,332 +658,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>32</v>
       </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>36</v>
       </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>36</v>
       </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>35</v>
       </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>33</v>
       </c>
-      <c r="C13">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14">
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>36</v>
       </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>25</v>
       </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
